--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AE0104-F29F-451B-9EA5-1574A9E0D1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B3E2C0-67A4-4162-AD5B-43E02B80D0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -474,11 +474,10 @@
     <t>Iacob Andrei</t>
   </si>
   <si>
-    <t>1. Cautarea unei piese dupa nume</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> F02a. Cautarea unei piese dupa nume.
-F02b. Cautarea unui produs dupa nume.</t>
+    <t>1. Cautarea unui produs dupa nume</t>
+  </si>
+  <si>
+    <t>F02b. Cautarea unui produs dupa nume.</t>
   </si>
 </sst>
 </file>
@@ -1250,6 +1249,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1262,51 +1264,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1319,20 +1336,68 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1355,12 +1420,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1376,9 +1435,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1386,73 +1442,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1917,7 +1916,7 @@
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,12 +1927,12 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" s="12"/>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="40" t="s">
@@ -2024,8 +2023,8 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="108" t="s">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="41" t="s">
         <v>91</v>
       </c>
       <c r="C11" s="1"/>
@@ -2059,7 +2058,7 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -2071,73 +2070,73 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B1" s="12"/>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="33"/>
       <c r="G6" s="33"/>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="Q6" s="41" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="Q6" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="35"/>
       <c r="G8" s="35"/>
       <c r="I8" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q8" s="46" t="s">
+      <c r="Q8" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
       <c r="T8" s="36" t="s">
         <v>1</v>
       </c>
@@ -2146,19 +2145,19 @@
       <c r="B9" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="C9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="I9" s="39"/>
-      <c r="Q9" s="46" t="s">
+      <c r="Q9" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
       <c r="T9" s="36" t="s">
         <v>1</v>
       </c>
@@ -2167,11 +2166,11 @@
       <c r="B10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+      <c r="C10" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="I10" s="50" t="s">
@@ -2183,13 +2182,13 @@
       <c r="M10" s="51"/>
       <c r="N10" s="51"/>
       <c r="O10" s="52"/>
-      <c r="Q10" s="46" t="s">
+      <c r="Q10" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="R10" s="46" t="s">
+      <c r="R10" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="46"/>
+      <c r="S10" s="59"/>
       <c r="T10" s="36" t="s">
         <v>1</v>
       </c>
@@ -2198,11 +2197,11 @@
       <c r="B11" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="C11" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="I11" s="53"/>
@@ -2217,11 +2216,11 @@
       <c r="B12" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="C12" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="I12" s="53"/>
@@ -2236,11 +2235,11 @@
       <c r="B13" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="C13" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="I13" s="53"/>
@@ -2250,22 +2249,22 @@
       <c r="M13" s="54"/>
       <c r="N13" s="54"/>
       <c r="O13" s="55"/>
-      <c r="Q13" s="41" t="s">
+      <c r="Q13" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
+      <c r="C14" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="I14" s="53"/>
@@ -2287,11 +2286,11 @@
       <c r="Q15" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="R15" s="59" t="s">
+      <c r="R15" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I16" s="53"/>
@@ -2304,11 +2303,11 @@
       <c r="Q16" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="R16" s="44" t="s">
+      <c r="R16" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I17" s="53"/>
@@ -2321,11 +2320,11 @@
       <c r="Q17" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="R17" s="44" t="s">
+      <c r="R17" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I18" s="53"/>
@@ -2338,11 +2337,11 @@
       <c r="Q18" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="R18" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
+      <c r="R18" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
     </row>
     <row r="19" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I19" s="53"/>
@@ -2355,11 +2354,11 @@
       <c r="Q19" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="R19" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
+      <c r="R19" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
     </row>
     <row r="20" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I20" s="53"/>
@@ -2372,11 +2371,11 @@
       <c r="Q20" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="R20" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
+      <c r="R20" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I21" s="53"/>
@@ -2389,11 +2388,11 @@
       <c r="Q21" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
+      <c r="R21" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
     </row>
     <row r="22" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I22" s="53"/>
@@ -2424,6 +2423,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -2440,14 +2447,6 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="R18:T18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2491,173 +2490,173 @@
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B1" s="12"/>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
     </row>
     <row r="6" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
     </row>
     <row r="7" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="63" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="64" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="65" t="s">
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
     </row>
     <row r="8" spans="2:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="66"/>
-      <c r="C8" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="62" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="69"/>
+      <c r="F8" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62" t="s">
+      <c r="G8" s="68"/>
+      <c r="H8" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62" t="s">
+      <c r="I8" s="68"/>
+      <c r="J8" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62" t="s">
+      <c r="K8" s="68"/>
+      <c r="L8" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="62"/>
-      <c r="P8" s="64" t="s">
+      <c r="O8" s="68"/>
+      <c r="P8" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="Q8" s="64" t="s">
+      <c r="Q8" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="R8" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="T8" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="U8" s="64" t="s">
+      <c r="R8" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="T8" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="U8" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="V8" s="65">
+      <c r="V8" s="64">
         <v>0</v>
       </c>
-      <c r="W8" s="65">
-        <v>1</v>
-      </c>
-      <c r="X8" s="65">
+      <c r="W8" s="64">
+        <v>1</v>
+      </c>
+      <c r="X8" s="64">
         <v>2</v>
       </c>
-      <c r="Y8" s="65" t="s">
+      <c r="Y8" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="Z8" s="65" t="s">
+      <c r="Z8" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AA8" s="65" t="s">
+      <c r="AA8" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AB8" s="65" t="s">
+      <c r="AB8" s="64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="66"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="63"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="13" t="s">
         <v>27</v>
       </c>
@@ -2688,19 +2687,19 @@
       <c r="O9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
     </row>
     <row r="10" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
@@ -2903,6 +2902,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -2919,20 +2932,6 @@
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="P7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2967,55 +2966,55 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="12"/>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="88" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="89"/>
+      <c r="L4" s="74"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="96"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="102"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="83"/>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3028,10 +3027,10 @@
       <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="91"/>
+      <c r="I5" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="76"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3043,7 +3042,7 @@
       <c r="B6" s="23">
         <v>9</v>
       </c>
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="77" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3061,10 +3060,10 @@
       <c r="H6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="87"/>
+      <c r="I6" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="85"/>
       <c r="K6" s="24" t="s">
         <v>1</v>
       </c>
@@ -3076,7 +3075,7 @@
       <c r="B7" s="23">
         <v>10</v>
       </c>
-      <c r="C7" s="97"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="4" t="s">
         <v>54</v>
       </c>
@@ -3092,10 +3091,10 @@
       <c r="H7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="89"/>
+      <c r="I7" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="74"/>
       <c r="K7" s="23" t="s">
         <v>1</v>
       </c>
@@ -3107,7 +3106,7 @@
       <c r="B8" s="23">
         <v>11</v>
       </c>
-      <c r="C8" s="97"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
@@ -3123,10 +3122,10 @@
       <c r="H8" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="89"/>
+      <c r="I8" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="74"/>
       <c r="K8" s="23" t="s">
         <v>1</v>
       </c>
@@ -3138,7 +3137,7 @@
       <c r="B9" s="23">
         <v>12</v>
       </c>
-      <c r="C9" s="97"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="10" t="s">
         <v>1</v>
       </c>
@@ -3154,10 +3153,10 @@
       <c r="H9" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="89"/>
+      <c r="I9" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="74"/>
       <c r="K9" s="23" t="s">
         <v>1</v>
       </c>
@@ -3169,7 +3168,7 @@
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="98"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="9" t="s">
         <v>1</v>
       </c>
@@ -3185,10 +3184,10 @@
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="91"/>
+      <c r="I10" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="76"/>
       <c r="K10" s="2" t="s">
         <v>1</v>
       </c>
@@ -3216,83 +3215,83 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105" t="s">
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="106"/>
-      <c r="H13" s="103" t="s">
+      <c r="G13" s="108"/>
+      <c r="H13" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="73" t="s">
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="N13" s="74"/>
+      <c r="N13" s="96"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="82" t="s">
+      <c r="G14" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="84" t="s">
+      <c r="H14" s="103" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="76" t="s">
+      <c r="I14" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="76" t="s">
+      <c r="J14" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="92" t="s">
+      <c r="K14" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="69" t="s">
+      <c r="L14" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="71" t="s">
+      <c r="M14" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="83" t="s">
+      <c r="N14" s="80" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="75"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="80"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="100"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="29">
@@ -3334,6 +3333,23 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M13:N13"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:B5"/>
@@ -3348,23 +3364,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3372,12 +3371,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3525,15 +3521,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3557,10 +3557,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B3E2C0-67A4-4162-AD5B-43E02B80D0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789B7650-F7A8-47AD-9A0E-C6474D9A6660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -1264,6 +1264,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1273,9 +1279,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1303,12 +1306,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1318,23 +1336,77 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1366,9 +1438,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1382,75 +1451,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1474,23 +1474,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>567690</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>551042</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>84317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>422910</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152897</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>46217</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6187" name="Picture 1">
+        <xdr:cNvPr id="6188" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C180000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1499,7 +1499,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1513,8 +1513,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="567690" y="1211580"/>
-          <a:ext cx="4442460" cy="2369820"/>
+          <a:off x="4750325" y="1608317"/>
+          <a:ext cx="4306376" cy="4343400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1548,23 +1548,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>621030</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>178727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>194310</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>472108</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6188" name="Picture 4">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C180000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE14A4B-6E1C-873D-343F-3120D787B39D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1573,49 +1573,19 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="5208270" y="1588770"/>
-          <a:ext cx="4724400" cy="4168140"/>
+          <a:off x="0" y="1131227"/>
+          <a:ext cx="4671391" cy="2976947"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2058,8 +2028,8 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20:T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2080,18 +2050,18 @@
       <c r="I1" s="44"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="50"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
@@ -2132,123 +2102,123 @@
       <c r="I8" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q8" s="59" t="s">
+      <c r="Q8" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="36" t="s">
-        <v>1</v>
+      <c r="R8" s="47"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="36">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="C9" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="I9" s="39"/>
-      <c r="Q9" s="59" t="s">
+      <c r="Q9" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="36" t="s">
-        <v>1</v>
+      <c r="R9" s="47"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="36">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="C10" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="Q10" s="59" t="s">
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="53"/>
+      <c r="Q10" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="R10" s="59" t="s">
+      <c r="R10" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="59"/>
-      <c r="T10" s="36" t="s">
-        <v>1</v>
+      <c r="S10" s="47"/>
+      <c r="T10" s="36">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
+      <c r="C11" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="56"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
+      <c r="C12" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="55"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="56"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
+      <c r="C13" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="55"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="56"/>
       <c r="Q13" s="42" t="s">
         <v>52</v>
       </c>
@@ -2260,29 +2230,29 @@
       <c r="B14" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
+      <c r="C14" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="55"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="56"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="55"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="56"/>
       <c r="Q15" s="34" t="s">
         <v>15</v>
       </c>
@@ -2293,13 +2263,13 @@
       <c r="T15" s="60"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="55"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="56"/>
       <c r="Q16" s="37" t="s">
         <v>59</v>
       </c>
@@ -2310,13 +2280,13 @@
       <c r="T16" s="45"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="55"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="56"/>
       <c r="Q17" s="37" t="s">
         <v>60</v>
       </c>
@@ -2327,13 +2297,13 @@
       <c r="T17" s="45"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="55"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="56"/>
       <c r="Q18" s="37" t="s">
         <v>63</v>
       </c>
@@ -2344,13 +2314,13 @@
       <c r="T18" s="45"/>
     </row>
     <row r="19" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="56"/>
       <c r="Q19" s="37" t="s">
         <v>8</v>
       </c>
@@ -2361,13 +2331,13 @@
       <c r="T19" s="45"/>
     </row>
     <row r="20" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="56"/>
       <c r="Q20" s="37" t="s">
         <v>6</v>
       </c>
@@ -2378,13 +2348,13 @@
       <c r="T20" s="45"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="56"/>
       <c r="Q21" s="37" t="s">
         <v>8</v>
       </c>
@@ -2395,42 +2365,34 @@
       <c r="T21" s="45"/>
     </row>
     <row r="22" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="55"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="56"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="56"/>
     </row>
     <row r="24" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="58"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -2447,6 +2409,14 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2498,73 +2468,73 @@
       <c r="G1" s="44"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
     </row>
     <row r="6" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67"/>
     </row>
     <row r="7" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="69" t="s">
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
       <c r="P7" s="65" t="s">
         <v>71</v>
       </c>
@@ -2573,45 +2543,45 @@
       <c r="S7" s="65"/>
       <c r="T7" s="65"/>
       <c r="U7" s="65"/>
-      <c r="V7" s="64" t="s">
+      <c r="V7" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="66"/>
     </row>
     <row r="8" spans="2:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="61"/>
-      <c r="C8" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="68" t="s">
+      <c r="B8" s="67"/>
+      <c r="C8" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68" t="s">
+      <c r="G8" s="63"/>
+      <c r="H8" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68" t="s">
+      <c r="I8" s="63"/>
+      <c r="J8" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68" t="s">
+      <c r="K8" s="63"/>
+      <c r="L8" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="68"/>
+      <c r="O8" s="63"/>
       <c r="P8" s="65" t="s">
         <v>59</v>
       </c>
@@ -2630,33 +2600,33 @@
       <c r="U8" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="V8" s="64">
+      <c r="V8" s="66">
         <v>0</v>
       </c>
-      <c r="W8" s="64">
-        <v>1</v>
-      </c>
-      <c r="X8" s="64">
+      <c r="W8" s="66">
+        <v>1</v>
+      </c>
+      <c r="X8" s="66">
         <v>2</v>
       </c>
-      <c r="Y8" s="64" t="s">
+      <c r="Y8" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="Z8" s="64" t="s">
+      <c r="Z8" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="AA8" s="64" t="s">
+      <c r="AA8" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="AB8" s="64" t="s">
+      <c r="AB8" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="61"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="69"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="13" t="s">
         <v>27</v>
       </c>
@@ -2693,13 +2663,13 @@
       <c r="S9" s="65"/>
       <c r="T9" s="65"/>
       <c r="U9" s="65"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="66"/>
     </row>
     <row r="10" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
@@ -2902,20 +2872,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -2932,6 +2888,20 @@
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="P7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2974,47 +2944,47 @@
       <c r="G1" s="44"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
+      <c r="L3" s="94"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="73" t="s">
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="74"/>
+      <c r="L4" s="98"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="72"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="83"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="106"/>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3027,10 +2997,10 @@
       <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="76"/>
+      <c r="I5" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="100"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3042,7 +3012,7 @@
       <c r="B6" s="23">
         <v>9</v>
       </c>
-      <c r="C6" s="77" t="s">
+      <c r="C6" s="101" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3060,10 +3030,10 @@
       <c r="H6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="85"/>
+      <c r="I6" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="108"/>
       <c r="K6" s="24" t="s">
         <v>1</v>
       </c>
@@ -3075,7 +3045,7 @@
       <c r="B7" s="23">
         <v>10</v>
       </c>
-      <c r="C7" s="77"/>
+      <c r="C7" s="101"/>
       <c r="D7" s="4" t="s">
         <v>54</v>
       </c>
@@ -3091,10 +3061,10 @@
       <c r="H7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="74"/>
+      <c r="I7" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="98"/>
       <c r="K7" s="23" t="s">
         <v>1</v>
       </c>
@@ -3106,7 +3076,7 @@
       <c r="B8" s="23">
         <v>11</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
@@ -3122,10 +3092,10 @@
       <c r="H8" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="74"/>
+      <c r="I8" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="98"/>
       <c r="K8" s="23" t="s">
         <v>1</v>
       </c>
@@ -3137,7 +3107,7 @@
       <c r="B9" s="23">
         <v>12</v>
       </c>
-      <c r="C9" s="77"/>
+      <c r="C9" s="101"/>
       <c r="D9" s="10" t="s">
         <v>1</v>
       </c>
@@ -3153,10 +3123,10 @@
       <c r="H9" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="74"/>
+      <c r="I9" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="98"/>
       <c r="K9" s="23" t="s">
         <v>1</v>
       </c>
@@ -3168,7 +3138,7 @@
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="102"/>
       <c r="D10" s="9" t="s">
         <v>1</v>
       </c>
@@ -3184,10 +3154,10 @@
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="76"/>
+      <c r="I10" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="100"/>
       <c r="K10" s="2" t="s">
         <v>1</v>
       </c>
@@ -3215,83 +3185,83 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="107" t="s">
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="108"/>
-      <c r="H13" s="88" t="s">
+      <c r="G13" s="73"/>
+      <c r="H13" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="95" t="s">
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="88"/>
+      <c r="M13" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="N13" s="96"/>
+      <c r="N13" s="93"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="98" t="s">
+      <c r="E14" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="100" t="s">
+      <c r="F14" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="102" t="s">
+      <c r="G14" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="103" t="s">
+      <c r="H14" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="86" t="s">
+      <c r="I14" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="86" t="s">
+      <c r="J14" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="105" t="s">
+      <c r="K14" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="91" t="s">
+      <c r="L14" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="93" t="s">
+      <c r="M14" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="80" t="s">
+      <c r="N14" s="75" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="97"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="100"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="76"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="29">
@@ -3333,6 +3303,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="G14:G15"/>
@@ -3349,21 +3334,6 @@
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="L14:L15"/>
     <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3371,9 +3341,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3521,19 +3494,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3557,9 +3526,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789B7650-F7A8-47AD-9A0E-C6474D9A6660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EBE8A4-2DC0-4D3E-8194-ECFD68C28391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1264,51 +1264,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1321,20 +1336,59 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1351,9 +1405,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1401,57 +1452,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1475,15 +1475,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>551042</xdr:colOff>
+      <xdr:colOff>3578086</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>84317</xdr:rowOff>
+      <xdr:rowOff>1490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152897</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>46217</xdr:rowOff>
+      <xdr:colOff>119766</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>99841</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1513,8 +1513,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4750325" y="1608317"/>
-          <a:ext cx="4306376" cy="4343400"/>
+          <a:off x="7777369" y="1525490"/>
+          <a:ext cx="4252788" cy="4289351"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1549,22 +1549,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>178727</xdr:rowOff>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>132521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>472108</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>107674</xdr:rowOff>
+      <xdr:colOff>3455703</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>149086</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCE14A4B-6E1C-873D-343F-3120D787B39D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB30A3CC-0D2F-4D5F-CD79-7DD50F44B1BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1580,8 +1580,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1131227"/>
-          <a:ext cx="4671391" cy="2976947"/>
+          <a:off x="165652" y="1275521"/>
+          <a:ext cx="7489334" cy="4398065"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2028,13 +2028,14 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20:T20"/>
+    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="115" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="8" max="8" width="53.85546875" customWidth="1"/>
     <col min="17" max="17" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2050,18 +2051,18 @@
       <c r="I1" s="44"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
@@ -2102,123 +2103,123 @@
       <c r="I8" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q8" s="47" t="s">
+      <c r="Q8" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
       <c r="T8" s="36">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="C9" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="I9" s="39"/>
-      <c r="Q9" s="47" t="s">
+      <c r="Q9" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
       <c r="T9" s="36">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="C10" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
-      <c r="I10" s="51" t="s">
+      <c r="I10" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="53"/>
-      <c r="Q10" s="47" t="s">
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
+      <c r="Q10" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="R10" s="47" t="s">
+      <c r="R10" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="47"/>
+      <c r="S10" s="59"/>
       <c r="T10" s="36">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="C11" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="56"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="C12" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
+      <c r="C13" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="56"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
       <c r="Q13" s="42" t="s">
         <v>52</v>
       </c>
@@ -2230,29 +2231,29 @@
       <c r="B14" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
+      <c r="C14" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="56"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I15" s="54"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="56"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="55"/>
       <c r="Q15" s="34" t="s">
         <v>15</v>
       </c>
@@ -2263,13 +2264,13 @@
       <c r="T15" s="60"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I16" s="54"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="56"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="55"/>
       <c r="Q16" s="37" t="s">
         <v>59</v>
       </c>
@@ -2280,13 +2281,13 @@
       <c r="T16" s="45"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I17" s="54"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="56"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="55"/>
       <c r="Q17" s="37" t="s">
         <v>60</v>
       </c>
@@ -2297,13 +2298,13 @@
       <c r="T17" s="45"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I18" s="54"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="56"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="55"/>
       <c r="Q18" s="37" t="s">
         <v>63</v>
       </c>
@@ -2314,13 +2315,13 @@
       <c r="T18" s="45"/>
     </row>
     <row r="19" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I19" s="54"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="56"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="55"/>
       <c r="Q19" s="37" t="s">
         <v>8</v>
       </c>
@@ -2331,13 +2332,13 @@
       <c r="T19" s="45"/>
     </row>
     <row r="20" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I20" s="54"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="56"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
       <c r="Q20" s="37" t="s">
         <v>6</v>
       </c>
@@ -2348,13 +2349,13 @@
       <c r="T20" s="45"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I21" s="54"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="56"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="55"/>
       <c r="Q21" s="37" t="s">
         <v>8</v>
       </c>
@@ -2365,34 +2366,42 @@
       <c r="T21" s="45"/>
     </row>
     <row r="22" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I22" s="54"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="56"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="55"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I23" s="54"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="56"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="55"/>
     </row>
     <row r="24" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="59"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -2409,14 +2418,6 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2468,73 +2469,73 @@
       <c r="G1" s="44"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="50"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
     </row>
     <row r="6" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
     </row>
     <row r="7" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="64" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
       <c r="P7" s="65" t="s">
         <v>71</v>
       </c>
@@ -2543,45 +2544,45 @@
       <c r="S7" s="65"/>
       <c r="T7" s="65"/>
       <c r="U7" s="65"/>
-      <c r="V7" s="66" t="s">
+      <c r="V7" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="66"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
     </row>
     <row r="8" spans="2:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="67"/>
-      <c r="C8" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="63" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="69"/>
+      <c r="F8" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63" t="s">
+      <c r="G8" s="68"/>
+      <c r="H8" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63" t="s">
+      <c r="I8" s="68"/>
+      <c r="J8" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63" t="s">
+      <c r="K8" s="68"/>
+      <c r="L8" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="63"/>
+      <c r="O8" s="68"/>
       <c r="P8" s="65" t="s">
         <v>59</v>
       </c>
@@ -2600,33 +2601,33 @@
       <c r="U8" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="V8" s="66">
+      <c r="V8" s="64">
         <v>0</v>
       </c>
-      <c r="W8" s="66">
-        <v>1</v>
-      </c>
-      <c r="X8" s="66">
+      <c r="W8" s="64">
+        <v>1</v>
+      </c>
+      <c r="X8" s="64">
         <v>2</v>
       </c>
-      <c r="Y8" s="66" t="s">
+      <c r="Y8" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="Z8" s="66" t="s">
+      <c r="Z8" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AA8" s="66" t="s">
+      <c r="AA8" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AB8" s="66" t="s">
+      <c r="AB8" s="64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="67"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="64"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="13" t="s">
         <v>27</v>
       </c>
@@ -2663,13 +2664,13 @@
       <c r="S9" s="65"/>
       <c r="T9" s="65"/>
       <c r="U9" s="65"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-      <c r="X9" s="66"/>
-      <c r="Y9" s="66"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="66"/>
-      <c r="AB9" s="66"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
     </row>
     <row r="10" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
@@ -2872,6 +2873,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -2888,20 +2903,6 @@
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="V7:AB7"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="P7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2944,47 +2945,47 @@
       <c r="G1" s="44"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="97" t="s">
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="98"/>
+      <c r="L4" s="76"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="96"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="106"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="85"/>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2997,10 +2998,10 @@
       <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="100"/>
+      <c r="I5" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="78"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3012,7 +3013,7 @@
       <c r="B6" s="23">
         <v>9</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="79" t="s">
         <v>47</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -3030,10 +3031,10 @@
       <c r="H6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="108"/>
+      <c r="I6" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="87"/>
       <c r="K6" s="24" t="s">
         <v>1</v>
       </c>
@@ -3045,7 +3046,7 @@
       <c r="B7" s="23">
         <v>10</v>
       </c>
-      <c r="C7" s="101"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="4" t="s">
         <v>54</v>
       </c>
@@ -3061,10 +3062,10 @@
       <c r="H7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="98"/>
+      <c r="I7" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="76"/>
       <c r="K7" s="23" t="s">
         <v>1</v>
       </c>
@@ -3076,7 +3077,7 @@
       <c r="B8" s="23">
         <v>11</v>
       </c>
-      <c r="C8" s="101"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="10" t="s">
         <v>1</v>
       </c>
@@ -3092,10 +3093,10 @@
       <c r="H8" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="98"/>
+      <c r="I8" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="76"/>
       <c r="K8" s="23" t="s">
         <v>1</v>
       </c>
@@ -3107,7 +3108,7 @@
       <c r="B9" s="23">
         <v>12</v>
       </c>
-      <c r="C9" s="101"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="10" t="s">
         <v>1</v>
       </c>
@@ -3123,10 +3124,10 @@
       <c r="H9" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="97" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="98"/>
+      <c r="I9" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="76"/>
       <c r="K9" s="23" t="s">
         <v>1</v>
       </c>
@@ -3138,7 +3139,7 @@
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="102"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="9" t="s">
         <v>1</v>
       </c>
@@ -3154,10 +3155,10 @@
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="100"/>
+      <c r="I10" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="78"/>
       <c r="K10" s="2" t="s">
         <v>1</v>
       </c>
@@ -3185,83 +3186,83 @@
       <c r="K12" s="25"/>
     </row>
     <row r="13" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72" t="s">
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="73"/>
-      <c r="H13" s="70" t="s">
+      <c r="G13" s="91"/>
+      <c r="H13" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="88"/>
-      <c r="M13" s="92" t="s">
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="N13" s="93"/>
+      <c r="N13" s="71"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="D14" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="85" t="s">
+      <c r="E14" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="74" t="s">
+      <c r="G14" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="77" t="s">
+      <c r="H14" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="79" t="s">
+      <c r="I14" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="79" t="s">
+      <c r="J14" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="81" t="s">
+      <c r="K14" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="L14" s="89" t="s">
+      <c r="L14" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="91" t="s">
+      <c r="M14" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="75" t="s">
+      <c r="N14" s="82" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="84"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="76"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="93"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="29">
@@ -3303,6 +3304,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
@@ -3319,21 +3335,6 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3341,12 +3342,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3494,15 +3492,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3526,10 +3528,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EBE8A4-2DC0-4D3E-8194-ECFD68C28391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD963FB4-C2C8-4397-BDE6-5CF2C520A097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="125">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -75,21 +97,12 @@
     <t>Predicate+1</t>
   </si>
   <si>
-    <t>CC1 = No. of regions =</t>
-  </si>
-  <si>
     <t>Path No.</t>
   </si>
   <si>
     <t>Path</t>
   </si>
   <si>
-    <t>1 - 2(F) - …</t>
-  </si>
-  <si>
-    <t>1 - 2(T) - …</t>
-  </si>
-  <si>
     <t>Input</t>
   </si>
   <si>
@@ -138,9 +151,6 @@
     <t>Req02_L03</t>
   </si>
   <si>
-    <t>&lt;Req02 CFG &gt;</t>
-  </si>
-  <si>
     <t>Proiectaţi şi implementaţi o aplicaţie Java pentru rezolvarea problemei propuse. Se va evidenţia o arhitectură stratificată.</t>
   </si>
   <si>
@@ -150,16 +160,7 @@
     <t>Condition/ decision (dc, cc, dcc, mcc)</t>
   </si>
   <si>
-    <t>CC2 = Edges - Nodes + 2 =</t>
-  </si>
-  <si>
-    <t>CC3 = No. of Conditions + 1 =</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lab03. White-box Testing. Code Coverage </t>
-  </si>
-  <si>
-    <t>1, 2,4, 6, 7</t>
   </si>
   <si>
     <t>#TCs run</t>
@@ -252,28 +253,10 @@
     <t>F02_TC02</t>
   </si>
   <si>
-    <t>F02_Cond01 &gt; 100</t>
-  </si>
-  <si>
-    <t>F02_Cond02 &lt; 20</t>
-  </si>
-  <si>
-    <t>F02_Cond03 == i</t>
-  </si>
-  <si>
-    <t>F02_Condnn &lt; n</t>
-  </si>
-  <si>
     <t>F02_P01</t>
   </si>
   <si>
     <t>F02_P02</t>
-  </si>
-  <si>
-    <t>F02_Pnn</t>
-  </si>
-  <si>
-    <t>F01_TC02</t>
   </si>
   <si>
     <t>F02_P03</t>
@@ -479,12 +462,150 @@
   <si>
     <t>F02b. Cautarea unui produs dupa nume.</t>
   </si>
+  <si>
+    <t>CC1 = No. of regions = 7</t>
+  </si>
+  <si>
+    <t>CC2 = Edges - Nodes + 2 = 18 -13 +2</t>
+  </si>
+  <si>
+    <t>CC3 = No. of Conditions + 1 = 6 +1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - 2(F) - 8(T) - 9 - 13 </t>
+  </si>
+  <si>
+    <t>1 - 2(F) - 8(F) - 10(T) - 11 - 13</t>
+  </si>
+  <si>
+    <t>1 - 2(F) - 8(F) - 10(F) - 12 -13</t>
+  </si>
+  <si>
+    <t>1 - 2(T) - 3(T) - 4(T) - 5 - 8(F) - 10(F) - 12 -13</t>
+  </si>
+  <si>
+    <t>F02_P04</t>
+  </si>
+  <si>
+    <t>F02_P05</t>
+  </si>
+  <si>
+    <t>F02_P06</t>
+  </si>
+  <si>
+    <t>F02_P07</t>
+  </si>
+  <si>
+    <t>F02_TC03</t>
+  </si>
+  <si>
+    <t>F02_TC04</t>
+  </si>
+  <si>
+    <t>F02_TC05</t>
+  </si>
+  <si>
+    <t>F02_TC06</t>
+  </si>
+  <si>
+    <t>F02_TC07</t>
+  </si>
+  <si>
+    <t>p.getName().contains(searchItem)</t>
+  </si>
+  <si>
+    <t>p.getInStock() &gt; 0</t>
+  </si>
+  <si>
+    <t>String.valueOf(p.getProductId()).equals(searchItem)</t>
+  </si>
+  <si>
+    <t>!isFound &amp;&amp; !isIdMatch</t>
+  </si>
+  <si>
+    <t>isFound &amp;&amp; foundProduct.getInStock() &lt;= 0</t>
+  </si>
+  <si>
+    <t>1, 2, 8, 9, 13</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>"abcd"</t>
+  </si>
+  <si>
+    <t>"Couldn't find the product!"</t>
+  </si>
+  <si>
+    <t>1, 2, 8, 10, 11, 13</t>
+  </si>
+  <si>
+    <t>"abcdef"</t>
+  </si>
+  <si>
+    <t>1, 2, 8, 10, 12, 13</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 8, 10, 12, 13</t>
+  </si>
+  <si>
+    <t>"Product1"</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>P,1,Product1,100,5,1,5,1:2:3:4</t>
+  </si>
+  <si>
+    <t>P,1,Product1,100,5,1,5,1:2:3:5</t>
+  </si>
+  <si>
+    <t>"Product2"</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 6, 2, 8, 9, 13</t>
+  </si>
+  <si>
+    <t>1 - 2(T) - 3(F) - 6(F) - 2(F) - 8(T) - 9 -13</t>
+  </si>
+  <si>
+    <t>1 - 2(T) - 3(F) - 6(T) - 7 - 2(F) - 8(F) - 10(F) - 12 -13</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 6, 7, 2, 8, 10, 12, 13</t>
+  </si>
+  <si>
+    <t>1 - 2(T) - 3(T) - 4(F) - 6(T) - 2(F) - 8(F) - 10(T) - 11 -13</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 6, 2, 8, 10, 11, 13</t>
+  </si>
+  <si>
+    <t>searchItem</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>"1"</t>
+  </si>
+  <si>
+    <t>P,2,Product2,100,0,1,5,1:2:3:4</t>
+  </si>
+  <si>
+    <t>"2"</t>
+  </si>
+  <si>
+    <t>P,3,abcdef,0,0,0,0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,13 +717,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="9"/>
@@ -615,6 +729,25 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1157,7 +1290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1205,15 +1338,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1247,8 +1371,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1264,6 +1388,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1273,9 +1403,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1303,30 +1430,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1336,6 +1442,84 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1372,9 +1556,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1390,68 +1571,54 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1472,80 +1639,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3578086</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1490</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>119766</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>99841</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6188" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C180000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7777369" y="1525490"/>
-          <a:ext cx="4252788" cy="4289351"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1573,7 +1666,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1591,6 +1684,70 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1885,131 +2042,131 @@
   </sheetPr>
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.7109375" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="12"/>
-      <c r="D1" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D1" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N6" s="26"/>
+      <c r="O6" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="N7" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="P7" s="29">
+      <c r="N7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="26">
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="N8" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="P8" s="29">
+      <c r="N8" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="26">
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="N9" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="P9" s="29">
+      <c r="N9" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="26">
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="41" t="s">
-        <v>91</v>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="38" t="s">
+        <v>78</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
     </row>
   </sheetData>
@@ -2028,380 +2185,383 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="115" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView topLeftCell="H5" zoomScale="115" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22:T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="8" max="8" width="53.85546875" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="53.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
+    <col min="20" max="20" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="12"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B6" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="I6" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="Q6" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="I8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B9" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="I9" s="36"/>
+      <c r="Q9" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B10" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="I10" s="48" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="50"/>
+      <c r="Q10" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="44"/>
+      <c r="T10" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="53"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B12" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B13" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="53"/>
+      <c r="Q13" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B14" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="53"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I15" s="51"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="53"/>
+      <c r="Q15" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="53"/>
+      <c r="Q16" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="R16" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+    </row>
+    <row r="17" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="53"/>
+      <c r="Q17" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="R17" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+    </row>
+    <row r="18" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
+      <c r="Q18" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="R18" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+    </row>
+    <row r="19" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
+      <c r="Q19" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="I6" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="Q6" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="I8" s="12" t="s">
+      <c r="R19" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="Q8" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="I9" s="39"/>
-      <c r="Q9" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" s="59"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="I10" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
-      <c r="Q10" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="S10" s="59"/>
-      <c r="T10" s="36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="55"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="55"/>
-      <c r="Q13" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="55"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I15" s="53"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="55"/>
-      <c r="Q15" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="R15" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I16" s="53"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="55"/>
-      <c r="Q16" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="R16" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-    </row>
-    <row r="17" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I17" s="53"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="55"/>
-      <c r="Q17" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="R17" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-    </row>
-    <row r="18" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I18" s="53"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="55"/>
-      <c r="Q18" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="R18" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-    </row>
-    <row r="19" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I19" s="53"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
-      <c r="Q19" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="R19" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-    </row>
-    <row r="20" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I20" s="53"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
-      <c r="Q20" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="R20" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-    </row>
-    <row r="21" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I21" s="53"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="55"/>
-      <c r="Q21" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-    </row>
-    <row r="22" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I22" s="53"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="55"/>
-    </row>
-    <row r="23" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I23" s="53"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="55"/>
-    </row>
-    <row r="24" spans="9:20" x14ac:dyDescent="0.25">
-      <c r="I24" s="56"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="58"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+    </row>
+    <row r="20" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I20" s="51"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="53"/>
+      <c r="Q20" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="R20" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+    </row>
+    <row r="21" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I21" s="51"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="53"/>
+      <c r="Q21" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="R21" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+    </row>
+    <row r="22" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I22" s="51"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="53"/>
+      <c r="Q22" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="R22" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+    </row>
+    <row r="23" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I23" s="51"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="53"/>
+    </row>
+    <row r="24" spans="9:20" x14ac:dyDescent="0.3">
+      <c r="I24" s="54"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
+  <mergeCells count="25">
+    <mergeCell ref="R22:T22"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -2418,7 +2578,16 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
   </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2430,260 +2599,267 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:AB16"/>
+  <dimension ref="B1:AC16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" customWidth="1"/>
-    <col min="12" max="12" width="6.42578125" customWidth="1"/>
-    <col min="13" max="13" width="5" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" customWidth="1"/>
-    <col min="16" max="17" width="8.85546875" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" customWidth="1"/>
-    <col min="22" max="24" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="4" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.109375" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="6.44140625" customWidth="1"/>
+    <col min="13" max="13" width="26.5546875" customWidth="1"/>
+    <col min="15" max="15" width="43.5546875" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" customWidth="1"/>
+    <col min="21" max="21" width="9.109375" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" customWidth="1"/>
+    <col min="23" max="24" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.5546875" customWidth="1"/>
+    <col min="27" max="27" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.3">
       <c r="B1" s="12"/>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B3" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+    </row>
+    <row r="6" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="114" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="115"/>
+      <c r="W6" s="115"/>
+      <c r="X6" s="115"/>
+      <c r="Y6" s="115"/>
+      <c r="Z6" s="115"/>
+      <c r="AA6" s="115"/>
+      <c r="AB6" s="115"/>
+      <c r="AC6" s="116"/>
+    </row>
+    <row r="7" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="112"/>
+      <c r="R7" s="112"/>
+      <c r="S7" s="112"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="112"/>
+      <c r="V7" s="113"/>
+      <c r="W7" s="108" t="s">
+        <v>19</v>
+      </c>
+      <c r="X7" s="109"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="109"/>
+      <c r="AA7" s="109"/>
+      <c r="AB7" s="109"/>
+      <c r="AC7" s="110"/>
+    </row>
+    <row r="8" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="62"/>
+      <c r="C8" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="119" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="60"/>
+      <c r="F8" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="59"/>
+      <c r="P8" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B3" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
-    </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="62" t="s">
+      <c r="T8" s="104" t="s">
+        <v>87</v>
+      </c>
+      <c r="U8" s="104" t="s">
+        <v>88</v>
+      </c>
+      <c r="V8" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="W8" s="106">
+        <v>0</v>
+      </c>
+      <c r="X8" s="106">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="106">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="AA8" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-    </row>
-    <row r="7" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="69" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="65" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="64" t="s">
+      <c r="AB8" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-    </row>
-    <row r="8" spans="2:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="61"/>
-      <c r="C8" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="68"/>
-      <c r="P8" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q8" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="R8" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="S8" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="T8" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="U8" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="V8" s="64">
-        <v>0</v>
-      </c>
-      <c r="W8" s="64">
-        <v>1</v>
-      </c>
-      <c r="X8" s="64">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="64" t="s">
+      <c r="AC8" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="Z8" s="64" t="s">
+    </row>
+    <row r="9" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="62"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AA8" s="64" t="s">
+      <c r="G9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AB8" s="64" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="61"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="H9" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N9" s="13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-    </row>
-    <row r="10" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="107"/>
+      <c r="X9" s="107"/>
+      <c r="Y9" s="107"/>
+      <c r="Z9" s="107"/>
+      <c r="AA9" s="107"/>
+      <c r="AB9" s="107"/>
+      <c r="AC9" s="107"/>
+    </row>
+    <row r="10" spans="2:29" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -2691,35 +2867,44 @@
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="L10" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
-      <c r="P10" s="18"/>
+      <c r="P10" s="18" t="s">
+        <v>101</v>
+      </c>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
       <c r="AB10" s="19"/>
-    </row>
-    <row r="11" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AC10" s="19"/>
+    </row>
+    <row r="11" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="C11" s="120" t="s">
+        <v>105</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16"/>
+        <v>124</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
@@ -2727,30 +2912,45 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
+      <c r="M11" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="O11" s="17"/>
       <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
+      <c r="Q11" s="18" t="s">
+        <v>101</v>
+      </c>
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="19"/>
       <c r="AB11" s="19"/>
-    </row>
-    <row r="12" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AC11" s="19"/>
+    </row>
+    <row r="12" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="16"/>
+        <v>90</v>
+      </c>
+      <c r="C12" s="117">
+        <v>123</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
@@ -2758,99 +2958,158 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="M12" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="O12" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
+      <c r="R12" s="18" t="s">
+        <v>101</v>
+      </c>
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="19"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
       <c r="AB12" s="19"/>
-    </row>
-    <row r="13" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AC12" s="19"/>
+    </row>
+    <row r="13" spans="2:29" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+        <v>91</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="H13" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="M13" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+      <c r="O13" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
+      <c r="S13" s="18" t="s">
+        <v>101</v>
+      </c>
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
-      <c r="V13" s="19"/>
+      <c r="V13" s="18"/>
       <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
+      <c r="X13" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
       <c r="AB13" s="19"/>
-    </row>
-    <row r="14" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AC13" s="19"/>
+    </row>
+    <row r="14" spans="2:29" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
+        <v>92</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="G14" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="J14" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="M14" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="O14" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
+      <c r="T14" s="18" t="s">
+        <v>101</v>
+      </c>
       <c r="U14" s="18"/>
-      <c r="V14" s="19"/>
+      <c r="V14" s="18"/>
       <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
+      <c r="X14" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
       <c r="AA14" s="19"/>
       <c r="AB14" s="19"/>
-    </row>
-    <row r="15" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AC14" s="19"/>
+    </row>
+    <row r="15" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
+        <v>93</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
+      <c r="G15" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
+      <c r="K15" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>101</v>
+      </c>
       <c r="M15" s="17"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
@@ -2859,51 +3118,107 @@
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="19"/>
+      <c r="U15" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="V15" s="18"/>
       <c r="W15" s="19"/>
-      <c r="X15" s="19"/>
+      <c r="X15" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
       <c r="AA15" s="19"/>
       <c r="AB15" s="19"/>
-    </row>
-    <row r="16" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
+      <c r="AC15" s="19"/>
+    </row>
+    <row r="16" spans="2:29" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="118" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="O16" s="17"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
+  <mergeCells count="31">
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="W7:AC7"/>
     <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="P7:V7"/>
+    <mergeCell ref="E6:AC6"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:AB6"/>
     <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="W8:W9"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="T8:T9"/>
-    <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:O7"/>
   </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2917,75 +3232,75 @@
   <dimension ref="B1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I8" sqref="I8:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="12"/>
-      <c r="D1" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="73" t="s">
+      <c r="D1" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="75" t="s">
+      <c r="D4" s="100" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="75" t="s">
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="76"/>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="74"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="85"/>
+      <c r="L4" s="93"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="91"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2998,10 +3313,10 @@
       <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="78"/>
+      <c r="I5" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="95"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3009,137 +3324,137 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="23">
+    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="20">
         <v>9</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="103"/>
+      <c r="K6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="20">
+        <v>10</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="24" t="s">
+      <c r="E7" s="20">
+        <v>5</v>
+      </c>
+      <c r="F7" s="20">
         <v>6</v>
       </c>
-      <c r="H6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="23">
-        <v>10</v>
-      </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="23">
-        <v>5</v>
-      </c>
-      <c r="F7" s="23">
+      <c r="G7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="H7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="93"/>
+      <c r="K7" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="20">
+        <v>11</v>
+      </c>
+      <c r="C8" s="96"/>
+      <c r="D8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="76"/>
-      <c r="K7" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" s="23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="23">
-        <v>11</v>
-      </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="23" t="s">
+      <c r="H8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="93"/>
+      <c r="K8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="20">
+        <v>12</v>
+      </c>
+      <c r="C9" s="96"/>
+      <c r="D9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="76"/>
-      <c r="K8" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="23">
-        <v>12</v>
-      </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="76"/>
-      <c r="K9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="93"/>
+      <c r="K9" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="9" t="s">
         <v>1</v>
       </c>
@@ -3155,10 +3470,10 @@
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="78"/>
+      <c r="I10" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="95"/>
       <c r="K10" s="2" t="s">
         <v>1</v>
       </c>
@@ -3166,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -3179,147 +3494,132 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" s="91"/>
-      <c r="H13" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="70" t="s">
-        <v>76</v>
-      </c>
-      <c r="N13" s="71"/>
-    </row>
-    <row r="14" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="L14" s="106" t="s">
-        <v>81</v>
-      </c>
-      <c r="M14" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="N14" s="82" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="101"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="93"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="29">
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="74"/>
+      <c r="H13" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="88"/>
+    </row>
+    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="76" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="66"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="71"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="26">
         <f>SUM(C16:D16)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="23">
         <v>0</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="23">
         <v>0</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="8" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" s="29">
+        <v>71</v>
+      </c>
+      <c r="I16" s="26">
         <f>SUM(J16:K16)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="26">
+      <c r="J16" s="23">
         <v>0</v>
       </c>
-      <c r="K16" s="30">
+      <c r="K16" s="27">
         <v>0</v>
       </c>
-      <c r="L16" s="31"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="N16" s="32">
+        <v>71</v>
+      </c>
+      <c r="N16" s="29">
         <f>C16</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:B5"/>
@@ -3334,7 +3634,22 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3342,9 +3657,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3492,19 +3810,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3528,9 +3842,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD963FB4-C2C8-4397-BDE6-5CF2C520A097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEA0F39-5FCD-4454-9C76-4FE25B6326EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="128">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -562,9 +562,6 @@
     <t>P,1,Product1,100,5,1,5,1:2:3:5</t>
   </si>
   <si>
-    <t>"Product2"</t>
-  </si>
-  <si>
     <t>1, 2, 3, 6, 2, 8, 9, 13</t>
   </si>
   <si>
@@ -599,13 +596,25 @@
   </si>
   <si>
     <t>P,3,abcdef,0,0,0,0</t>
+  </si>
+  <si>
+    <t>"nonexistent"</t>
+  </si>
+  <si>
+    <t>"SuperGadget"</t>
+  </si>
+  <si>
+    <t>"SuperWidget"</t>
+  </si>
+  <si>
+    <t>"SuperThingamabob2"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,6 +761,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -827,7 +843,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -908,19 +924,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1178,19 +1181,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="64"/>
       </left>
@@ -1257,17 +1247,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -1290,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1308,64 +1287,55 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1376,32 +1346,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1412,213 +1389,216 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2053,7 +2033,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B1" s="12"/>
+      <c r="B1" s="10"/>
       <c r="D1" s="39" t="s">
         <v>73</v>
       </c>
@@ -2062,7 +2042,7 @@
       <c r="G1" s="41"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="34" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2080,21 +2060,21 @@
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="34" t="s">
+      <c r="N5" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26" t="s">
+      <c r="N6" s="23"/>
+      <c r="O6" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P6" s="23" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2103,13 +2083,13 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="N7" s="26" t="s">
+      <c r="N7" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="26" t="s">
+      <c r="O7" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="23">
         <v>233</v>
       </c>
     </row>
@@ -2118,13 +2098,13 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="N8" s="26" t="s">
+      <c r="N8" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="23">
         <v>233</v>
       </c>
     </row>
@@ -2135,13 +2115,13 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="N9" s="26" t="s">
+      <c r="N9" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="O9" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="23">
         <v>233</v>
       </c>
     </row>
@@ -2151,7 +2131,7 @@
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="35" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="1"/>
@@ -2185,8 +2165,8 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="H5" zoomScale="115" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22:T22"/>
+    <sheetView topLeftCell="N8" zoomScale="115" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2199,7 +2179,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B1" s="12"/>
+      <c r="B1" s="10"/>
       <c r="D1" s="39" t="s">
         <v>73</v>
       </c>
@@ -2210,18 +2190,18 @@
       <c r="I1" s="41"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="45"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="39" t="s">
@@ -2230,8 +2210,8 @@
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
       <c r="E6" s="41"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
       <c r="I6" s="39" t="s">
         <v>43</v>
       </c>
@@ -2249,7 +2229,7 @@
       <c r="T6" s="40"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="57" t="s">
@@ -2257,128 +2237,128 @@
       </c>
       <c r="D8" s="57"/>
       <c r="E8" s="57"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="I8" s="12" t="s">
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="I8" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Q8" s="44" t="s">
+      <c r="Q8" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="R8" s="44"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="33">
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="30">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="I9" s="36"/>
-      <c r="Q9" s="44" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="I9" s="33"/>
+      <c r="Q9" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="33">
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="30">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="I10" s="48" t="e" vm="1">
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="I10" s="47" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="50"/>
-      <c r="Q10" s="44" t="s">
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="49"/>
+      <c r="Q10" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="R10" s="44" t="s">
+      <c r="R10" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="44"/>
-      <c r="T10" s="33">
+      <c r="S10" s="56"/>
+      <c r="T10" s="30">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="53"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="53"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
       <c r="Q13" s="39" t="s">
         <v>45</v>
       </c>
@@ -2387,33 +2367,33 @@
       <c r="T13" s="40"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="53"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="52"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="53"/>
-      <c r="Q15" s="31" t="s">
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="52"/>
+      <c r="Q15" s="28" t="s">
         <v>14</v>
       </c>
       <c r="R15" s="57" t="s">
@@ -2423,14 +2403,14 @@
       <c r="T15" s="57"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I16" s="51"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="53"/>
-      <c r="Q16" s="34" t="s">
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="52"/>
+      <c r="Q16" s="31" t="s">
         <v>48</v>
       </c>
       <c r="R16" s="42" t="s">
@@ -2440,14 +2420,14 @@
       <c r="T16" s="42"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I17" s="51"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="53"/>
-      <c r="Q17" s="34" t="s">
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="52"/>
+      <c r="Q17" s="31" t="s">
         <v>49</v>
       </c>
       <c r="R17" s="42" t="s">
@@ -2457,14 +2437,14 @@
       <c r="T17" s="42"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
-      <c r="Q18" s="34" t="s">
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="52"/>
+      <c r="Q18" s="31" t="s">
         <v>50</v>
       </c>
       <c r="R18" s="42" t="s">
@@ -2474,14 +2454,14 @@
       <c r="T18" s="42"/>
     </row>
     <row r="19" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="53"/>
-      <c r="Q19" s="34" t="s">
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="52"/>
+      <c r="Q19" s="31" t="s">
         <v>86</v>
       </c>
       <c r="R19" s="42" t="s">
@@ -2491,76 +2471,85 @@
       <c r="T19" s="42"/>
     </row>
     <row r="20" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I20" s="51"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="53"/>
-      <c r="Q20" s="34" t="s">
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="52"/>
+      <c r="Q20" s="31" t="s">
         <v>87</v>
       </c>
       <c r="R20" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S20" s="42"/>
       <c r="T20" s="42"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="53"/>
-      <c r="Q21" s="34" t="s">
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="52"/>
+      <c r="Q21" s="31" t="s">
         <v>88</v>
       </c>
       <c r="R21" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S21" s="42"/>
       <c r="T21" s="42"/>
     </row>
     <row r="22" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I22" s="51"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="53"/>
-      <c r="Q22" s="34" t="s">
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="52"/>
+      <c r="Q22" s="31" t="s">
         <v>89</v>
       </c>
       <c r="R22" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S22" s="42"/>
       <c r="T22" s="42"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I23" s="51"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="53"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="52"/>
     </row>
     <row r="24" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I24" s="54"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="56"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="R22:T22"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
@@ -2577,15 +2566,6 @@
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2601,8 +2581,8 @@
   </sheetPr>
   <dimension ref="B1:AC16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2630,7 +2610,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B1" s="12"/>
+      <c r="B1" s="10"/>
       <c r="D1" s="39" t="s">
         <v>73</v>
       </c>
@@ -2639,568 +2619,576 @@
       <c r="G1" s="41"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="114" t="s">
+      <c r="E6" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
-      <c r="O6" s="115"/>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="115"/>
-      <c r="R6" s="115"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115"/>
-      <c r="U6" s="115"/>
-      <c r="V6" s="115"/>
-      <c r="W6" s="115"/>
-      <c r="X6" s="115"/>
-      <c r="Y6" s="115"/>
-      <c r="Z6" s="115"/>
-      <c r="AA6" s="115"/>
-      <c r="AB6" s="115"/>
-      <c r="AC6" s="116"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
+      <c r="AB6" s="68"/>
+      <c r="AC6" s="69"/>
     </row>
     <row r="7" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="60" t="s">
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="111" t="s">
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="112"/>
-      <c r="R7" s="112"/>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="113"/>
-      <c r="W7" s="108" t="s">
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="109"/>
-      <c r="AB7" s="109"/>
-      <c r="AC7" s="110"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="62"/>
     </row>
     <row r="8" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
-      <c r="C8" s="119" t="s">
+      <c r="B8" s="70"/>
+      <c r="C8" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="E8" s="78"/>
+      <c r="F8" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" s="77"/>
+      <c r="P8" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" s="73" t="s">
+        <v>86</v>
+      </c>
+      <c r="T8" s="73" t="s">
+        <v>87</v>
+      </c>
+      <c r="U8" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="V8" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="W8" s="58">
+        <v>0</v>
+      </c>
+      <c r="X8" s="58">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="58">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB8" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC8" s="58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="70"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="59"/>
+      <c r="AB9" s="59"/>
+      <c r="AC9" s="59"/>
+    </row>
+    <row r="10" spans="2:29" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+    </row>
+    <row r="11" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+    </row>
+    <row r="12" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="36">
+        <v>123</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+    </row>
+    <row r="13" spans="2:29" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+    </row>
+    <row r="14" spans="2:29" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8" s="59"/>
-      <c r="P8" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="R8" s="104" t="s">
-        <v>50</v>
-      </c>
-      <c r="S8" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="T8" s="104" t="s">
-        <v>87</v>
-      </c>
-      <c r="U8" s="104" t="s">
-        <v>88</v>
-      </c>
-      <c r="V8" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="W8" s="106">
-        <v>0</v>
-      </c>
-      <c r="X8" s="106">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="106">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="106" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA8" s="106" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB8" s="106" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC8" s="106" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="62"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="105"/>
-      <c r="S9" s="105"/>
-      <c r="T9" s="105"/>
-      <c r="U9" s="105"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="107"/>
-      <c r="X9" s="107"/>
-      <c r="Y9" s="107"/>
-      <c r="Z9" s="107"/>
-      <c r="AA9" s="107"/>
-      <c r="AB9" s="107"/>
-      <c r="AC9" s="107"/>
-    </row>
-    <row r="10" spans="2:29" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="D14" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+    </row>
+    <row r="15" spans="2:29" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="120" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17" t="s">
+      <c r="E15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="18" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="19" t="s">
+      <c r="L15" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
-      <c r="Z10" s="19"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-    </row>
-    <row r="11" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="120" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17" t="s">
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="V15" s="16"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="O11" s="17"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18" t="s">
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+    </row>
+    <row r="16" spans="2:29" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="19" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-    </row>
-    <row r="12" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="117">
-        <v>123</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17" t="s">
+      <c r="J16" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17" t="s">
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18" t="s">
+      <c r="N16" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="19" t="s">
+      <c r="O16" s="15"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="X12" s="19"/>
-      <c r="Y12" s="19"/>
-      <c r="Z12" s="19"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="19"/>
-      <c r="AC12" s="19"/>
-    </row>
-    <row r="13" spans="2:29" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="17" t="s">
+      <c r="W16" s="17"/>
+      <c r="X16" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="19"/>
-      <c r="AC13" s="19"/>
-    </row>
-    <row r="14" spans="2:29" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-    </row>
-    <row r="15" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="V15" s="18"/>
-      <c r="W15" s="19"/>
-      <c r="X15" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y15" s="19"/>
-      <c r="Z15" s="19"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="19"/>
-      <c r="AC15" s="19"/>
-    </row>
-    <row r="16" spans="2:29" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="118" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="N16" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="19"/>
-      <c r="AC16" s="19"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="AC8:AC9"/>
     <mergeCell ref="W7:AC7"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="P7:V7"/>
     <mergeCell ref="E6:AC6"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
     <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="AA8:AA9"/>
     <mergeCell ref="U8:U9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:G8"/>
     <mergeCell ref="X8:X9"/>
     <mergeCell ref="Y8:Y9"/>
     <mergeCell ref="T8:T9"/>
@@ -3209,14 +3197,6 @@
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="W8:W9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:O7"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3229,19 +3209,19 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:N16"/>
+  <dimension ref="B1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
@@ -3250,8 +3230,8 @@
     <col min="15" max="15" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B1" s="12"/>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="10"/>
       <c r="D1" s="39" t="s">
         <v>73</v>
       </c>
@@ -3259,413 +3239,395 @@
       <c r="F1" s="40"/>
       <c r="G1" s="41"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="89" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="90" t="s">
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="92" t="s">
+      <c r="F4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="93"/>
-    </row>
-    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="91"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="95"/>
-      <c r="K5" s="2" t="s">
+      <c r="G4" s="111"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
+    </row>
+    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="82"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="G5" s="18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="20">
+      <c r="H5" s="115"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+    </row>
+    <row r="6" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="18">
         <v>9</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="108" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="103"/>
-      <c r="K6" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="20">
+      <c r="E6" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" s="115"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="18">
         <v>10</v>
       </c>
-      <c r="C7" s="96"/>
+      <c r="C7" s="109"/>
       <c r="D7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="20">
-        <v>5</v>
-      </c>
-      <c r="F7" s="20">
-        <v>6</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" s="20" t="s">
+      <c r="E7" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
         <v>1</v>
       </c>
-      <c r="I7" s="92" t="s">
+      <c r="H7" s="115"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="18">
+        <v>11</v>
+      </c>
+      <c r="C8" s="109"/>
+      <c r="D8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="J7" s="93"/>
-      <c r="K7" s="20" t="s">
+      <c r="G8" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="H8" s="115"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="18">
+        <v>12</v>
+      </c>
+      <c r="C9" s="109"/>
+      <c r="D9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="18" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="20">
-        <v>11</v>
-      </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="10" t="s">
+      <c r="G9" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="93"/>
-      <c r="K8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="20">
-        <v>12</v>
-      </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="93"/>
-      <c r="K9" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="115"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+    </row>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="97"/>
-      <c r="D10" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="J10" s="95"/>
-      <c r="K10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
+      <c r="C10" s="109"/>
+      <c r="D10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="115"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+    </row>
+    <row r="11" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="18">
+        <v>14</v>
+      </c>
+      <c r="C11" s="109"/>
+      <c r="D11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="121" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" s="115"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="18">
+        <v>15</v>
+      </c>
+      <c r="C12" s="109"/>
+      <c r="D12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="115"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+    </row>
+    <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="81" t="s">
+      <c r="K21" s="19"/>
+    </row>
+    <row r="22" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="73" t="s">
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="74"/>
-      <c r="H13" s="81" t="s">
+      <c r="G22" s="88"/>
+      <c r="H22" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="87" t="s">
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="N13" s="88"/>
-    </row>
-    <row r="14" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="65" t="s">
+      <c r="N22" s="103"/>
+    </row>
+    <row r="23" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="67" t="s">
+      <c r="C23" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D23" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="69" t="s">
+      <c r="E23" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="71" t="s">
+      <c r="F23" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="75" t="s">
+      <c r="G23" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="77" t="s">
+      <c r="H23" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="67" t="s">
+      <c r="I23" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="67" t="s">
+      <c r="J23" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="79" t="s">
+      <c r="K23" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="84" t="s">
+      <c r="L23" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="86" t="s">
+      <c r="M23" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="76" t="s">
+      <c r="N23" s="83" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="66"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="71"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="26">
-        <f>SUM(C16:D16)</f>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="104"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="101"/>
+      <c r="N24" s="90"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="23">
+        <v>7</v>
+      </c>
+      <c r="C25" s="20">
+        <v>7</v>
+      </c>
+      <c r="D25" s="20">
         <v>0</v>
       </c>
-      <c r="C16" s="23">
+      <c r="E25" s="21">
+        <v>100</v>
+      </c>
+      <c r="F25" s="22">
         <v>0</v>
       </c>
-      <c r="D16" s="23">
+      <c r="G25" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="23">
+        <f>SUM(J25:K25)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="8" t="s">
+      <c r="J25" s="20">
+        <v>0</v>
+      </c>
+      <c r="K25" s="24">
+        <v>0</v>
+      </c>
+      <c r="L25" s="25"/>
+      <c r="M25" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="26">
-        <f>SUM(J16:K16)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="23">
-        <v>0</v>
-      </c>
-      <c r="K16" s="27">
-        <v>0</v>
-      </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N16" s="29">
-        <f>C16</f>
-        <v>0</v>
+      <c r="N25" s="26">
+        <f>C25</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="B13:E13"/>
+  <mergeCells count="33">
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="E4:J4"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F22:G22"/>
   </mergeCells>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3809,6 +3771,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3816,14 +3787,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3841,6 +3804,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
   <ds:schemaRefs>

--- a/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEA0F39-5FCD-4454-9C76-4FE25B6326EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F2359F-F0D2-4C9D-BBB8-EACD8A1B28F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="138">
   <si>
     <t>Informaţiile vor fi preluate din fişiere text.</t>
   </si>
@@ -532,36 +532,21 @@
     <t>X</t>
   </si>
   <si>
-    <t>"abcd"</t>
-  </si>
-  <si>
     <t>"Couldn't find the product!"</t>
   </si>
   <si>
     <t>1, 2, 8, 10, 11, 13</t>
   </si>
   <si>
-    <t>"abcdef"</t>
-  </si>
-  <si>
     <t>1, 2, 8, 10, 12, 13</t>
   </si>
   <si>
-    <t>1, 2, 3, 4, 5, 8, 10, 12, 13</t>
-  </si>
-  <si>
-    <t>"Product1"</t>
-  </si>
-  <si>
     <t>null</t>
   </si>
   <si>
     <t>P,1,Product1,100,5,1,5,1:2:3:4</t>
   </si>
   <si>
-    <t>P,1,Product1,100,5,1,5,1:2:3:5</t>
-  </si>
-  <si>
     <t>1, 2, 3, 6, 2, 8, 9, 13</t>
   </si>
   <si>
@@ -608,6 +593,70 @@
   </si>
   <si>
     <t>"SuperThingamabob2"</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 6, 7, 2, 3, 4, 5, 8, 10, 12, 13</t>
+  </si>
+  <si>
+    <t>!isFound</t>
+  </si>
+  <si>
+    <t>!isIdMatch</t>
+  </si>
+  <si>
+    <t>isFound</t>
+  </si>
+  <si>
+    <t>foundProduct.getInStock()</t>
+  </si>
+  <si>
+    <t>Product list: ["P,1,SuperWidget,999,50,5,100,1:2", "P,2,SuperGadget,1999,0,5,100,1:2","P,3,SuperThingamabob,499,20,5,100,1:2","P,4,SuperThingamabob2,499,0,5,100,1:2"]</t>
+  </si>
+  <si>
+    <t>Product list1: [P,3,abcdef,0,0,0,0; P,1,Product1,100,5,1,5,1:2:3:4; P,2,Product2,100,0,1,5,1:2:3:4]</t>
+  </si>
+  <si>
+    <t>Product list2: []</t>
+  </si>
+  <si>
+    <t>Product list2, "abcd"</t>
+  </si>
+  <si>
+    <t>Product list2, 123</t>
+  </si>
+  <si>
+    <t>Product list1, "abcdef"</t>
+  </si>
+  <si>
+    <t>Product list1, "Product1"</t>
+  </si>
+  <si>
+    <t>Product list1, "1"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Product list1,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> null</t>
+    </r>
+  </si>
+  <si>
+    <t>Product list1, "2"</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1353,6 +1402,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1365,6 +1429,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1374,9 +1444,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1404,55 +1471,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1473,19 +1495,139 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1503,102 +1645,14 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2022,7 +2076,7 @@
   </sheetPr>
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2034,12 +2088,12 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="34" t="s">
@@ -2165,7 +2219,7 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="N8" zoomScale="115" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="J8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="R19" sqref="R19:T19"/>
     </sheetView>
   </sheetViews>
@@ -2180,73 +2234,73 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="45"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="Q6" s="39" t="s">
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="Q6" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="I8" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="Q8" s="56" t="s">
+      <c r="Q8" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
       <c r="T8" s="30">
         <v>7</v>
       </c>
@@ -2255,19 +2309,19 @@
       <c r="B9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="32"/>
       <c r="G9" s="32"/>
       <c r="I9" s="33"/>
-      <c r="Q9" s="56" t="s">
+      <c r="Q9" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
       <c r="T9" s="30">
         <v>7</v>
       </c>
@@ -2276,29 +2330,29 @@
       <c r="B10" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="32"/>
       <c r="G10" s="32"/>
-      <c r="I10" s="47" t="e" vm="1">
+      <c r="I10" s="53" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="49"/>
-      <c r="Q10" s="56" t="s">
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="55"/>
+      <c r="Q10" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="R10" s="56" t="s">
+      <c r="R10" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="S10" s="56"/>
+      <c r="S10" s="49"/>
       <c r="T10" s="30">
         <v>7</v>
       </c>
@@ -2307,249 +2361,240 @@
       <c r="B11" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="32"/>
       <c r="G11" s="32"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="58"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="32"/>
       <c r="G12" s="32"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="58"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="32"/>
       <c r="G13" s="32"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
-      <c r="Q13" s="39" t="s">
+      <c r="I13" s="56"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="58"/>
+      <c r="Q13" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="58"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I15" s="50"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="52"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="58"/>
       <c r="Q15" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="R15" s="57" t="s">
+      <c r="R15" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="52"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="58"/>
       <c r="Q16" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="R16" s="42" t="s">
+      <c r="R16" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="52"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="58"/>
       <c r="Q17" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="R17" s="42" t="s">
+      <c r="R17" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="52"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="58"/>
       <c r="Q18" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="R18" s="42" t="s">
+      <c r="R18" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
     </row>
     <row r="19" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="52"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="58"/>
       <c r="Q19" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="R19" s="42" t="s">
+      <c r="R19" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
     </row>
     <row r="20" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="52"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="58"/>
       <c r="Q20" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="R20" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
+      <c r="R20" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="52"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="58"/>
       <c r="Q21" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="R21" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
+      <c r="R21" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
     </row>
     <row r="22" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I22" s="50"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="52"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="58"/>
       <c r="Q22" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="R22" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
+      <c r="R22" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
     </row>
     <row r="23" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I23" s="50"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="51"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="52"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="58"/>
     </row>
     <row r="24" spans="9:20" x14ac:dyDescent="0.3">
-      <c r="I24" s="53"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="55"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R18:T18"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
     <mergeCell ref="R22:T22"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
@@ -2566,6 +2611,15 @@
     <mergeCell ref="I6:O6"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2579,10 +2633,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:AC16"/>
+  <dimension ref="B1:AK17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2590,300 +2644,327 @@
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="4" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" customWidth="1"/>
-    <col min="7" max="7" width="28" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="46.109375" customWidth="1"/>
-    <col min="11" max="11" width="6.109375" customWidth="1"/>
-    <col min="12" max="12" width="6.44140625" customWidth="1"/>
-    <col min="13" max="13" width="26.5546875" customWidth="1"/>
-    <col min="15" max="15" width="43.5546875" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" customWidth="1"/>
-    <col min="21" max="21" width="9.109375" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" customWidth="1"/>
-    <col min="23" max="24" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.5546875" customWidth="1"/>
-    <col min="27" max="27" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="23.77734375" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="15" width="4.88671875" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" customWidth="1"/>
+    <col min="18" max="18" width="19.77734375" customWidth="1"/>
+    <col min="19" max="19" width="20.88671875" customWidth="1"/>
+    <col min="20" max="20" width="4.6640625" customWidth="1"/>
+    <col min="21" max="21" width="4.5546875" customWidth="1"/>
+    <col min="22" max="22" width="12.6640625" customWidth="1"/>
+    <col min="23" max="23" width="12.77734375" customWidth="1"/>
+    <col min="24" max="25" width="8.88671875" customWidth="1"/>
+    <col min="29" max="29" width="9.109375" customWidth="1"/>
+    <col min="30" max="30" width="9.33203125" customWidth="1"/>
+    <col min="31" max="32" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.5546875" customWidth="1"/>
+    <col min="35" max="35" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
-    </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B3" s="43" t="s">
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="3" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B3" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="45"/>
-    </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="70" t="s">
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="2:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C7" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D7" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E7" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
-      <c r="AB6" s="68"/>
-      <c r="AC6" s="69"/>
-    </row>
-    <row r="7" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="78" t="s">
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="82"/>
+      <c r="AK7" s="83"/>
+    </row>
+    <row r="8" spans="2:37" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="77" t="s">
+      <c r="F8" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="64" t="s">
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="122"/>
+      <c r="W8" s="122"/>
+      <c r="X8" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="60" t="s">
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="79"/>
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="62"/>
-    </row>
-    <row r="8" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="70"/>
-      <c r="C8" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="77" t="s">
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="76"/>
+      <c r="AI8" s="76"/>
+      <c r="AJ8" s="76"/>
+      <c r="AK8" s="77"/>
+    </row>
+    <row r="9" spans="2:37" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="70"/>
+      <c r="C9" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="69"/>
+      <c r="F9" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77" t="s">
+      <c r="G9" s="68"/>
+      <c r="H9" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77" t="s">
+      <c r="I9" s="68"/>
+      <c r="J9" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77" t="s">
+      <c r="K9" s="68"/>
+      <c r="L9" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77" t="s">
+      <c r="M9" s="68"/>
+      <c r="N9" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="O9" s="121"/>
+      <c r="P9" s="120" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="O8" s="77"/>
-      <c r="P8" s="63" t="s">
+      <c r="S9" s="68"/>
+      <c r="T9" s="120" t="s">
+        <v>126</v>
+      </c>
+      <c r="U9" s="121"/>
+      <c r="V9" s="120" t="s">
+        <v>127</v>
+      </c>
+      <c r="W9" s="121"/>
+      <c r="X9" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="63" t="s">
+      <c r="Y9" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="73" t="s">
+      <c r="Z9" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="S8" s="73" t="s">
+      <c r="AA9" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="T8" s="73" t="s">
+      <c r="AB9" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="U8" s="73" t="s">
+      <c r="AC9" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="V8" s="63" t="s">
+      <c r="AD9" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="W8" s="58">
+      <c r="AE9" s="73">
         <v>0</v>
       </c>
-      <c r="X8" s="58">
+      <c r="AF9" s="73">
         <v>1</v>
       </c>
-      <c r="Y8" s="58">
+      <c r="AG9" s="73">
         <v>2</v>
       </c>
-      <c r="Z8" s="58" t="s">
+      <c r="AH9" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="AA8" s="58" t="s">
+      <c r="AI9" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="AB8" s="58" t="s">
+      <c r="AJ9" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="AC8" s="58" t="s">
+      <c r="AK9" s="73" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="70"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="11" t="s">
+    <row r="10" spans="2:37" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="70"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="74"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="59"/>
-      <c r="AC9" s="59"/>
-    </row>
-    <row r="10" spans="2:29" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="P10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="65"/>
+      <c r="AB10" s="65"/>
+      <c r="AC10" s="65"/>
+      <c r="AD10" s="63"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+    </row>
+    <row r="11" spans="2:37" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C11" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-    </row>
-    <row r="11" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>104</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -2891,45 +2972,57 @@
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15" t="s">
-        <v>101</v>
-      </c>
+      <c r="L11" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="M11" s="15"/>
       <c r="N11" s="15" t="s">
         <v>101</v>
       </c>
       <c r="O11" s="15"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-    </row>
-    <row r="12" spans="2:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P11" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+    </row>
+    <row r="12" spans="2:37" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="36">
-        <v>123</v>
+        <v>47</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>133</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -2941,49 +3034,61 @@
       <c r="M12" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-    </row>
-    <row r="13" spans="2:29" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="N12" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="W12" s="15"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+    </row>
+    <row r="13" spans="2:37" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>108</v>
+        <v>90</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>132</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>101</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="15" t="s">
-        <v>101</v>
-      </c>
+      <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
@@ -2991,47 +3096,69 @@
       <c r="M13" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-    </row>
-    <row r="14" spans="2:29" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="N13" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="V13" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="W13" s="15"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+    </row>
+    <row r="14" spans="2:37" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="15"/>
+        <v>123</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="G14" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15" t="s">
         <v>101</v>
@@ -3045,37 +3172,59 @@
       <c r="O14" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-    </row>
-    <row r="15" spans="2:29" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="P14" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="V14" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="W14" s="15"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB14" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH14" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:37" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="120" t="s">
-        <v>109</v>
+        <v>92</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>135</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15" t="s">
@@ -3083,120 +3232,224 @@
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="M15" s="15"/>
+      <c r="J15" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="V15" s="16"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-    </row>
-    <row r="16" spans="2:29" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="O15" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="T15" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:37" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:37" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="N16" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="O16" s="15"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
+      <c r="C17" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="W17" s="15"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+      <c r="AD17" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:O7"/>
+  <mergeCells count="35">
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AE8:AK8"/>
+    <mergeCell ref="AD9:AD10"/>
+    <mergeCell ref="X8:AD8"/>
+    <mergeCell ref="E7:AK7"/>
+    <mergeCell ref="AH9:AH10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AF9:AF10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AB9:AB10"/>
+    <mergeCell ref="AJ9:AJ10"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="AE9:AE10"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="W7:AC7"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="P7:V7"/>
-    <mergeCell ref="E6:AC6"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="X9:X10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Z9:Z10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:S8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="V9:W9"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3211,8 +3464,8 @@
   </sheetPr>
   <dimension ref="B1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23:G24"/>
+    <sheetView topLeftCell="A15" zoomScale="167" zoomScaleNormal="167" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3232,57 +3485,62 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B1" s="10"/>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="41"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="111" t="s">
+      <c r="F4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
     </row>
     <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="82"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="110" t="s">
-        <v>118</v>
+      <c r="B5" s="114"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="39" t="s">
+        <v>113</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>4</v>
@@ -3290,47 +3548,47 @@
       <c r="G5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="115"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18">
         <v>9</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="84" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="115"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
+        <v>102</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="18">
         <v>10</v>
       </c>
-      <c r="C7" s="109"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F7" s="18">
         <v>0</v>
@@ -3338,22 +3596,22 @@
       <c r="G7" s="18">
         <v>1</v>
       </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="18">
         <v>11</v>
       </c>
-      <c r="C8" s="109"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F8" s="18" t="b">
         <v>1</v>
@@ -3361,22 +3619,22 @@
       <c r="G8" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="115"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="18">
         <v>12</v>
       </c>
-      <c r="C9" s="109"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F9" s="18" t="b">
         <v>1</v>
@@ -3384,80 +3642,80 @@
       <c r="G9" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="115"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <v>13</v>
       </c>
-      <c r="C10" s="109"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="4" t="s">
         <v>92</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="H10" s="115"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
+        <v>115</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18">
         <v>14</v>
       </c>
-      <c r="C11" s="109"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="121" t="s">
-        <v>109</v>
+      <c r="E11" s="43" t="s">
+        <v>105</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
+        <v>102</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="18">
         <v>15</v>
       </c>
-      <c r="C12" s="109"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="18" t="s">
-        <v>127</v>
-      </c>
       <c r="G12" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12" s="115"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
+        <v>122</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
     <row r="21" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
@@ -3466,83 +3724,83 @@
       <c r="K21" s="19"/>
     </row>
     <row r="22" spans="2:14" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="87" t="s">
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="88"/>
-      <c r="H22" s="79" t="s">
+      <c r="G22" s="119"/>
+      <c r="H22" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="102" t="s">
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="N22" s="103"/>
+      <c r="N22" s="99"/>
     </row>
     <row r="23" spans="2:14" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="93" t="s">
+      <c r="C23" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="93" t="s">
+      <c r="D23" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="105" t="s">
+      <c r="E23" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="90" t="s">
+      <c r="F23" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="89" t="s">
+      <c r="G23" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="91" t="s">
+      <c r="H23" s="109" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="93" t="s">
+      <c r="I23" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="93" t="s">
+      <c r="J23" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="K23" s="95" t="s">
+      <c r="K23" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="L23" s="98" t="s">
+      <c r="L23" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="100" t="s">
+      <c r="M23" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="N23" s="83" t="s">
+      <c r="N23" s="108" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="104"/>
-      <c r="C24" s="94"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="94"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="90"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="102"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="105"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="23">
@@ -3587,11 +3845,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="M23:M24"/>
@@ -3608,18 +3872,12 @@
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="J23:J24"/>
     <mergeCell ref="B22:E22"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B3:G3"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="F22:G22"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3628,6 +3886,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3771,15 +4038,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3787,6 +4045,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3804,14 +4070,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
   <ds:schemaRefs>
